--- a/df_1/df_1_5.xlsx
+++ b/df_1/df_1_5.xlsx
@@ -665,387 +665,387 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.6012 %</t>
+          <t>0,6012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.4759 %</t>
+          <t>0,4759</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5211 %</t>
+          <t>0,5211</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.6155 %</t>
+          <t>0,6155</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.963 %</t>
+          <t>0,963</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0095 %</t>
+          <t>1,0095</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.2636 %</t>
+          <t>1,2636</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.96 %</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.6316 %</t>
+          <t>1,6316</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.1951 %</t>
+          <t>1,1951</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.9518 %</t>
+          <t>0,9518</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.9031 %</t>
+          <t>0,9031</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.1057 %</t>
+          <t>1,1057</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.0905 %</t>
+          <t>1,0905</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.1518 %</t>
+          <t>1,1518</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.1799 %</t>
+          <t>1,1799</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.2413 %</t>
+          <t>1,2413</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.986 %</t>
+          <t>0,986</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.0024 %</t>
+          <t>1,0024</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.9855 %</t>
+          <t>0,9855</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.4083 %</t>
+          <t>1,4083</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.3055 %</t>
+          <t>1,3055</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.1724 %</t>
+          <t>1,1724</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.0983 %</t>
+          <t>1,0983</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.2299 %</t>
+          <t>1,2299</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.058 %</t>
+          <t>1,058</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1.1533 %</t>
+          <t>1,1533</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.0076 %</t>
+          <t>1,0076</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.8129 %</t>
+          <t>0,8129</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.8417 %</t>
+          <t>0,8417</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.9943 %</t>
+          <t>0,9943</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.0219 %</t>
+          <t>1,0219</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.7674 %</t>
+          <t>0,7674</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.8148 %</t>
+          <t>0,8148</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.8213 %</t>
+          <t>0,8213</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.7406 %</t>
+          <t>0,7406</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.056 %</t>
+          <t>1,056</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.7993 %</t>
+          <t>0,7993</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.8834 %</t>
+          <t>0,8834</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.8558 %</t>
+          <t>0,8558</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.8367 %</t>
+          <t>0,8367</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.839 %</t>
+          <t>0,839</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.0678 %</t>
+          <t>1,0678</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>1.0039 %</t>
+          <t>1,0039</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.9228 %</t>
+          <t>0,9228</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.7469 %</t>
+          <t>0,7469</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.9326 %</t>
+          <t>0,9326</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.9461 %</t>
+          <t>0,9461</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.9041 %</t>
+          <t>0,9041</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.9423 %</t>
+          <t>0,9423</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>1.4824 %</t>
+          <t>1,4824</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>1.0303 %</t>
+          <t>1,0303</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.8305 %</t>
+          <t>0,8305</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>1.0145 %</t>
+          <t>1,0145</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>1.0756 %</t>
+          <t>1,0756</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>1.0325 %</t>
+          <t>1,0325</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1.0789 %</t>
+          <t>1,0789</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>1.2271 %</t>
+          <t>1,2271</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>1.1678 %</t>
+          <t>1,1678</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.9344 %</t>
+          <t>0,9344</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.774 %</t>
+          <t>0,774</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>1.1441 %</t>
+          <t>1,1441</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.9413 %</t>
+          <t>0,9413</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.7314 %</t>
+          <t>0,7314</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.8989 %</t>
+          <t>0,8989</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.9732 %</t>
+          <t>0,9732</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.939 %</t>
+          <t>0,939</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>1.0324 %</t>
+          <t>1,0324</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>1.2671 %</t>
+          <t>1,2671</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>1.0974 %</t>
+          <t>1,0974</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>1.1056 %</t>
+          <t>1,1056</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.954 %</t>
+          <t>0,954</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>1.0173 %</t>
+          <t>1,0173</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>1.0546 %</t>
+          <t>1,0546</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0.4071 %</t>
+          <t>0,4071</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>0.1274 %</t>
+          <t>0,1274</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>1.787 %</t>
+          <t>1,787</t>
         </is>
       </c>
     </row>
@@ -1057,232 +1057,232 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.6482 %</t>
+          <t>2,6482</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.4906 %</t>
+          <t>1,4906</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.4934 %</t>
+          <t>0,4934</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4978 %</t>
+          <t>0,4978</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4544 %</t>
+          <t>0,4544</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4611 %</t>
+          <t>0,4611</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.5069 %</t>
+          <t>0,5069</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4783 %</t>
+          <t>0,4783</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.4893 %</t>
+          <t>0,4893</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.4782 %</t>
+          <t>0,4782</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.4462 %</t>
+          <t>0,4462</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.5006 %</t>
+          <t>0,5006</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.5107 %</t>
+          <t>0,5107</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.5021 %</t>
+          <t>0,5021</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.4867 %</t>
+          <t>0,4867</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.4349 %</t>
+          <t>0,4349</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.4665 %</t>
+          <t>0,4665</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.3928 %</t>
+          <t>0,3928</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.4156 %</t>
+          <t>0,4156</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.3807 %</t>
+          <t>0,3807</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.4498 %</t>
+          <t>0,4498</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.4365 %</t>
+          <t>0,4365</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.5971 %</t>
+          <t>0,5971</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.7357 %</t>
+          <t>0,7357</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.5824 %</t>
+          <t>0,5824</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.5715 %</t>
+          <t>0,5715</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.5561 %</t>
+          <t>0,5561</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.6101 %</t>
+          <t>0,6101</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.4562 %</t>
+          <t>0,4562</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.5099 %</t>
+          <t>0,5099</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.4396 %</t>
+          <t>0,4396</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.4152 %</t>
+          <t>0,4152</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.408 %</t>
+          <t>0,408</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.4167 %</t>
+          <t>0,4167</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.4976 %</t>
+          <t>0,4976</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.4461 %</t>
+          <t>0,4461</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.4131 %</t>
+          <t>0,4131</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.42 %</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.432 %</t>
+          <t>0,432</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.4122 %</t>
+          <t>0,4122</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.3538 %</t>
+          <t>0,3538</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.3424 %</t>
+          <t>0,3424</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4031 %</t>
+          <t>0,4031</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.4 %</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.5861 %</t>
+          <t>0,5861</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3.8903 %</t>
+          <t>3,8903</t>
         </is>
       </c>
     </row>
@@ -1294,267 +1294,267 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8.7629 %</t>
+          <t>8,7629</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.3764 %</t>
+          <t>1,3764</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5878 %</t>
+          <t>0,5878</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.2596 %</t>
+          <t>0,2596</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1946 %</t>
+          <t>0,1946</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1459 %</t>
+          <t>0,1459</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.1026 %</t>
+          <t>0,1026</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0728 %</t>
+          <t>0,0728</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0534 %</t>
+          <t>0,0534</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0526 %</t>
+          <t>0,0526</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.037 %</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.0285 %</t>
+          <t>0,0285</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0223 %</t>
+          <t>0,0223</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0253 %</t>
+          <t>0,0253</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0232 %</t>
+          <t>0,0232</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0337 %</t>
+          <t>0,0337</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.0605 %</t>
+          <t>0,0605</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.2671 %</t>
+          <t>0,2671</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.5442 %</t>
+          <t>0,5442</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.3459 %</t>
+          <t>0,3459</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.1779 %</t>
+          <t>0,1779</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.1659 %</t>
+          <t>0,1659</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.2117 %</t>
+          <t>0,2117</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.2549 %</t>
+          <t>0,2549</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.2883 %</t>
+          <t>0,2883</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.2503 %</t>
+          <t>0,2503</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.2591 %</t>
+          <t>0,2591</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.2732 %</t>
+          <t>0,2732</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.2757 %</t>
+          <t>0,2757</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.2486 %</t>
+          <t>0,2486</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.255 %</t>
+          <t>0,255</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.2784 %</t>
+          <t>0,2784</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.3555 %</t>
+          <t>0,3555</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.3702 %</t>
+          <t>0,3702</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.4079 %</t>
+          <t>0,4079</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.4643 %</t>
+          <t>0,4643</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.4417 %</t>
+          <t>0,4417</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.6033 %</t>
+          <t>0,6033</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1.2891 %</t>
+          <t>1,2891</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2.5311 %</t>
+          <t>2,5311</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>4.3752 %</t>
+          <t>4,3752</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>10.6503 %</t>
+          <t>10,6503</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>11.8463 %</t>
+          <t>11,8463</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>9.9937 %</t>
+          <t>9,9937</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>11.7484 %</t>
+          <t>11,7484</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>9.1198 %</t>
+          <t>9,1198</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>7.7922 %</t>
+          <t>7,7922</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>7.635 %</t>
+          <t>7,635</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>6.3649 %</t>
+          <t>6,3649</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>6.6439 %</t>
+          <t>6,6439</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>5.9515 %</t>
+          <t>5,9515</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>6.5932 %</t>
+          <t>6,5932</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>5.3171 %</t>
+          <t>5,3171</t>
         </is>
       </c>
     </row>
